--- a/Mini project 2.xlsx
+++ b/Mini project 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvomm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9FFE94A9-BA43-4EBC-AD46-E87D7F1B4AFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{389FF5F1-AAD9-4FAA-9002-9BDF01DA2456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="multiple regression output" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="72" uniqueCount="45">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="76" uniqueCount="48">
   <si>
     <t>cty</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>Residuals</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>iqr</t>
   </si>
 </sst>
 </file>
@@ -322,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +509,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -684,7 +705,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -695,6 +716,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="34" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -832,6 +860,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Counties In Baltimore, MD</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -3390,11 +3421,20 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3417,10 +3457,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>0.98171435760705272</v>
       </c>
     </row>
@@ -3467,7 +3507,7 @@
       <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3487,7 +3527,7 @@
       <c r="E12" s="2">
         <v>53.687715012172454</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>1.8285642392947284E-2</v>
       </c>
     </row>
@@ -3521,7 +3561,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="9"/>
+    </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
@@ -3533,7 +3575,7 @@
       <c r="D16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -3550,10 +3592,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>0.25095070920091772</v>
       </c>
       <c r="C17" s="2">
@@ -3562,7 +3604,7 @@
       <c r="D17" s="2">
         <v>2.3959516770517895</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="6">
         <v>0.13882546655744621</v>
       </c>
       <c r="F17" s="2">
@@ -3579,10 +3621,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>0.5978854937603697</v>
       </c>
       <c r="C18" s="2">
@@ -3591,7 +3633,7 @@
       <c r="D18" s="2">
         <v>4.1264928483303915</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="6">
         <v>5.4012989050786331E-2</v>
       </c>
       <c r="F18" s="2">
@@ -3608,10 +3650,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="8">
         <v>-5.3098177383954486E-3</v>
       </c>
       <c r="C19" s="3">
@@ -3620,7 +3662,7 @@
       <c r="D19" s="3">
         <v>-8.3940083975016191E-2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="8">
         <v>0.94074967417377875</v>
       </c>
       <c r="F19" s="3">
@@ -3716,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3727,9 +3769,10 @@
     <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3745,8 +3788,20 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3762,8 +3817,26 @@
       <c r="E2" s="1">
         <v>0.81640000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G2" s="1">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="J2">
+        <f>QUARTILE(G2:G6, 1)</f>
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K2">
+        <f>QUARTILE(G2:G6,3)</f>
+        <v>0.44969999999999999</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2</f>
+        <v>2.0699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3779,8 +3852,14 @@
       <c r="E3" s="1">
         <v>0.80330000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G3" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3796,8 +3875,14 @@
       <c r="E4" s="1">
         <v>0.78410000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4" s="1">
+        <v>0.44969999999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.44969999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3813,8 +3898,14 @@
       <c r="E5" s="1">
         <v>0.79359999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G5" s="1">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3829,6 +3920,12 @@
       </c>
       <c r="E6" s="1">
         <v>0.71609999999999996</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.21629999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.21629999999999999</v>
       </c>
     </row>
   </sheetData>
